--- a/TeamTaskList.xlsx
+++ b/TeamTaskList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudeshkrishnamoorthy/Documents/CSC2023/AIChallenge/watsonx-challenge/singapore-lions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASHOKARAO\Documents\GitHub\singapore-lions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A4EF519-C36C-494D-BAB8-52F3E4508538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F823FC6-96BA-4FE0-9D81-88559FD39FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{729DD38D-9442-874F-9B71-80F3585C1FC9}"/>
+    <workbookView xWindow="-108" yWindow="-16308" windowWidth="29016" windowHeight="16416" xr2:uid="{729DD38D-9442-874F-9B71-80F3585C1FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,16 +36,178 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">Task List for the Team Members </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Who</t>
+  </si>
+  <si>
+    <t>When</t>
+  </si>
+  <si>
+    <t>Comments / Guidelines / Observations</t>
+  </si>
+  <si>
+    <t>IBM Security Offerings</t>
+  </si>
+  <si>
+    <t>In the defined format (format will be provided) in txt file</t>
+  </si>
+  <si>
+    <t>IBM/ RH Integration Offerings</t>
+  </si>
+  <si>
+    <t>IBM Cloud (Power and VMware offerings)</t>
+  </si>
+  <si>
+    <t>IBM Cloud Services &amp; Offerings</t>
+  </si>
+  <si>
+    <t>Da Bing &amp; Ramkumar</t>
+  </si>
+  <si>
+    <t>Naren &amp; Ashok</t>
+  </si>
+  <si>
+    <t>Larry &amp; Atsu</t>
+  </si>
+  <si>
+    <t>Vijay &amp; Rambabu</t>
+  </si>
+  <si>
+    <t>IBM Cloud Pak for Data</t>
+  </si>
+  <si>
+    <t>Do Young &amp; Ashis</t>
+  </si>
+  <si>
+    <t>Data Preparation &amp; related queries</t>
+  </si>
+  <si>
+    <t>Environment Setup &amp; preparation</t>
+  </si>
+  <si>
+    <t>On your personal laptops / devices</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Relevant Queries based on data prepared.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List out queries that the content created by you will answer</t>
+    </r>
+  </si>
+  <si>
+    <t>Additional</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>The Project will leverage a dedicated environment
+#4,5 and 6 essential if you are contributing to develop code</t>
+  </si>
+  <si>
+    <t>Integration of Desktop environment with Project environment</t>
+  </si>
+  <si>
+    <t>Interation of the GitHub Desktop with the GitHub Project (created by Sudesh)</t>
+  </si>
+  <si>
+    <t>Clone from GitHub Project to your desktop GitHub</t>
+  </si>
+  <si>
+    <t>Checkin to the GitHub Project</t>
+  </si>
+  <si>
+    <t>The data you have prepared along with the queries - Push it to the GitHub Project</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optional:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Those interested can start trying their hands on Python development</t>
+    </r>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Development of Python code (APIs, Functions etc.,)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More detailed development tasks enumerated in the next sprint. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Deploy GitHub Desktop
+2. IBM Cloud Account
+3. IBM Watson assistant </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(for individual learning &amp; testing purpose)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Visual Studio Code
+5. Python 3.11
+6. IBM Cloud CLI
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -53,13 +215,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -74,8 +273,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,23 +622,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D6530D-E8B2-FB4C-A3E9-55038BD3FB9E}">
-  <dimension ref="G9"/>
+  <dimension ref="B3:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.8984375" customWidth="1"/>
+    <col min="2" max="2" width="5.69921875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="37" style="6" customWidth="1"/>
+    <col min="5" max="5" width="36.69921875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.296875" customWidth="1"/>
+    <col min="8" max="8" width="50.69921875" customWidth="1"/>
+    <col min="9" max="9" width="5.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G9" t="s">
+    <row r="3" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="2:8" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="7">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="D13:H13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>